--- a/AAII_Financials/Quarterly/XFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>XFIN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +962,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,13 +1007,13 @@
         <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>-100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,8 +1058,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1036,25 +1070,28 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,25 +1134,28 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>-100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1230,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>-100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1262,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>-100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,8 +1442,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1454,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>-100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1518,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>-100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1617,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1743,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1658,8 +1757,8 @@
       <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1676,20 +1775,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,19 +1807,22 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>234600</v>
+        <v>234800</v>
       </c>
       <c r="E47" s="3">
         <v>234600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>234600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1734,8 +1839,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,25 +1967,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,25 +2031,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E54" s="3">
         <v>236000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>236500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="H54" s="3">
+        <v>400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,8 +2093,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1972,11 +2103,11 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2007,11 +2141,11 @@
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,25 +2155,28 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2050,26 +2187,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
       </c>
       <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,8 +2251,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2119,8 +2265,8 @@
       <c r="E62" s="3">
         <v>8100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>8100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,26 +2379,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,26 +2553,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,26 +2681,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-7600</v>
+        <v>226700</v>
       </c>
       <c r="E76" s="3">
+        <v>227000</v>
+      </c>
+      <c r="F76" s="3">
         <v>227500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2782,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>-100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,25 +3020,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,20 +3336,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>236500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,25 +3400,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>XFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,8 +715,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,8 +750,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,28 +989,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -995,8 +1022,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,19 +1034,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1074,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1061,8 +1095,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1073,8 +1107,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,19 +1119,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-500</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1105,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,28 +1177,31 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1169,31 +1212,34 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,28 +1282,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1265,28 +1317,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1492,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1445,8 +1515,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1457,28 +1527,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,28 +1597,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1553,34 +1632,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,23 +1704,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,8 +1772,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,8 +1842,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1760,8 +1859,8 @@
       <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1778,23 +1877,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,22 +1912,25 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E47" s="3">
         <v>234800</v>
-      </c>
-      <c r="E47" s="3">
-        <v>234600</v>
       </c>
       <c r="F47" s="3">
         <v>234600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>234600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1842,8 +1947,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1874,8 +1982,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,28 +2087,31 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,28 +2157,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>236800</v>
+      </c>
+      <c r="E54" s="3">
         <v>235900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>236000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>236500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,23 +2224,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2257,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2144,11 +2278,11 @@
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,28 +2292,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2190,29 +2327,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,8 +2397,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2268,8 +2414,8 @@
       <c r="F62" s="3">
         <v>8100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>8100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,29 +2537,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,29 +2727,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,29 +2867,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>227100</v>
+      </c>
+      <c r="E76" s="3">
         <v>226700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>227000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>227500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +2937,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,28 +2977,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,8 +3237,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3032,19 +3249,19 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,8 +3392,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,8 +3582,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,12 +3596,12 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>236500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3617,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,8 +3652,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3412,19 +3664,19 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>XFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,68 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +760,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +801,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +842,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +863,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +900,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +941,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +982,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1023,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,8 +1041,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -999,34 +1052,40 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,34 +1093,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1140,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,25 +1151,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1110,8 +1177,14 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,34 +1192,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,55 +1259,67 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1241,17 +1332,23 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1382,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1505,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1546,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1587,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1628,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,25 +1643,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1530,43 +1669,55 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1751,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1859,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,29 +1876,31 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1913,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1954,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1995,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,16 +2036,22 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
@@ -1862,11 +2059,11 @@
       <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1880,29 +2077,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,29 +2118,35 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>237700</v>
+      </c>
+      <c r="F47" s="3">
         <v>235800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>234800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>234600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>234600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,8 +2159,14 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1985,8 +2200,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2241,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2282,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,43 +2323,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,43 +2405,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>240800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>238500</v>
+      </c>
+      <c r="F54" s="3">
         <v>236800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>235900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>236000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>236500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2467,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,8 +2484,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2234,20 +2495,20 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,13 +2521,19 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
@@ -2281,92 +2548,110 @@
         <v>300</v>
       </c>
       <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,8 +2685,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2417,11 +2708,11 @@
       <c r="G62" s="3">
         <v>8100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>8100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2726,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2767,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2808,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,43 +2849,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F66" s="3">
         <v>9600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2911,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2948,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2989,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +3030,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,43 +3071,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +3153,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3194,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,43 +3235,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>228100</v>
+      </c>
+      <c r="F76" s="3">
         <v>227100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>226700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>227000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>227500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3317,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3425,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3065,8 +3462,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3503,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3544,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3585,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3626,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,34 +3667,40 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3708,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3729,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3325,8 +3766,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3807,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3848,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3430,8 +3889,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3910,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3947,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3988,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +4029,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,29 +4070,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>236500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3620,8 +4111,14 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +4152,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>XFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,37 +1069,38 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>100</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1084,8 +1111,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,28 +1123,28 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>-100</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,17 +1185,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1171,8 +1205,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,28 +1229,28 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
+      <c r="L21" s="3">
+        <v>-100</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -1224,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,37 +1305,40 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-2100</v>
       </c>
       <c r="E23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>-100</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1306,23 +1349,26 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1338,8 +1384,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,37 +1437,40 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>-100</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1429,37 +1481,40 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>-100</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,17 +1713,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1733,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1675,37 +1745,40 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>-100</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,37 +1833,40 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>-100</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1798,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,32 +1964,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,8 +2050,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,19 +2138,22 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
@@ -2065,8 +2164,8 @@
       <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2083,32 +2182,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,31 +2226,34 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E47" s="3">
         <v>240000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>237700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>235800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>234800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>234600</v>
       </c>
       <c r="I47" s="3">
         <v>234600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>234600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2165,8 +2270,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2206,8 +2314,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,37 +2446,40 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>400</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,37 +2534,40 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E54" s="3">
         <v>240800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>238500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>236800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>235900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>236000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>236500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>400</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,32 +2616,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2536,7 +2670,7 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -2554,11 +2688,11 @@
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,37 +2702,40 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="E59" s="3">
         <v>1800</v>
       </c>
       <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>300</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2609,38 +2746,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1000</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,8 +2834,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2714,8 +2860,8 @@
       <c r="I62" s="3">
         <v>8100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>8100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,38 +3010,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,38 +3248,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,38 +3424,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-9300</v>
+        <v>35900</v>
       </c>
       <c r="E76" s="3">
+        <v>229600</v>
+      </c>
+      <c r="F76" s="3">
         <v>228100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>227100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>226700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>227000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>227500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,37 +3561,40 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>-100</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,16 +3887,19 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -3691,19 +3908,19 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3951,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,31 +4081,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>190600</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,19 +4319,22 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-189400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -4096,12 +4342,12 @@
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>236500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,37 +4407,40 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
